--- a/SDET_11_ComcastFramework/testData/TestData.xlsx
+++ b/SDET_11_ComcastFramework/testData/TestData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
     <sheet name="Org" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E13"/>
+  <oleSize ref="A1:K13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>TestID</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Abin</t>
   </si>
   <si>
-    <t>lastName</t>
-  </si>
-  <si>
     <t>createOrg</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>industry</t>
   </si>
   <si>
-    <t>Manuu</t>
-  </si>
-  <si>
     <t>contactName</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>Mspiders</t>
   </si>
   <si>
-    <t>tc_10</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -90,6 +81,12 @@
   </si>
   <si>
     <t>TY_Qsipders_</t>
+  </si>
+  <si>
+    <t>tc_1</t>
+  </si>
+  <si>
+    <t>tc_2</t>
   </si>
 </sst>
 </file>
@@ -417,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,20 +433,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -472,22 +469,22 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -499,28 +496,16 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
@@ -852,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -916,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -929,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -952,7 +937,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
